--- a/VralumGlassWeb/wwwroot/storage/optimization.xlsx
+++ b/VralumGlassWeb/wwwroot/storage/optimization.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">28.12.2019 09:10</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">29.12.2019 08:24</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -23,13 +23,25 @@
     <t xml:space="preserve">Columns</t>
   </si>
   <si>
-    <t xml:space="preserve">6300 X 0</t>
+    <t xml:space="preserve">6300 X 1</t>
   </si>
   <si>
     <t xml:space="preserve">Total:</t>
   </si>
   <si>
-    <t xml:space="preserve">0 mm</t>
+    <t xml:space="preserve">6300 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 pcs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,30 kg</t>
   </si>
   <si>
     <t xml:space="preserve">Stocks</t>
@@ -44,7 +56,7 @@
     <t xml:space="preserve">7000 X 2</t>
   </si>
   <si>
-    <t xml:space="preserve">3500[/]</t>
+    <t xml:space="preserve">3500[1/1]</t>
   </si>
   <si>
     <t xml:space="preserve">14000 mm</t>
@@ -53,13 +65,10 @@
     <t xml:space="preserve">6900 mm (49,29%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Weight:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,75 kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,11 kg</t>
+    <t xml:space="preserve">33,88 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,70 kg</t>
   </si>
 </sst>
 </file>
@@ -208,60 +217,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="8">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
         <v>3450</v>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7">
+    <row r="13">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
         <v>3450</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/VralumGlassWeb/wwwroot/storage/optimization.xlsx
+++ b/VralumGlassWeb/wwwroot/storage/optimization.xlsx
@@ -12,63 +12,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">29.12.2019 08:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">29.12.2019 12:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ss</t>
   </si>
   <si>
     <t xml:space="preserve">Columns</t>
   </si>
   <si>
-    <t xml:space="preserve">6300 X 1</t>
+    <t xml:space="preserve">6300 X 0</t>
   </si>
   <si>
     <t xml:space="preserve">Total:</t>
   </si>
   <si>
-    <t xml:space="preserve">6300 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 pcs.</t>
+    <t xml:space="preserve">0 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snippets [Floor/Apartment]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7000 X 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3500[/]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14000 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6900 mm (49,29%)</t>
   </si>
   <si>
     <t xml:space="preserve">Weight:</t>
   </si>
   <si>
-    <t xml:space="preserve">6,30 kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snippets [Floor/Apartment]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7000 X 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3500[1/1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14000 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6900 mm (49,29%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,88 kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,70 kg</t>
+    <t xml:space="preserve">36,75 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,11 kg</t>
   </si>
 </sst>
 </file>
@@ -217,76 +208,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+    <row r="7"/>
+    <row r="8">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="7">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
+    <row r="13">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
